--- a/docentes/Ángel Martínez Noe Cristobal - Estadisticos 20211.xlsx
+++ b/docentes/Ángel Martínez Noe Cristobal - Estadisticos 20211.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="31">
   <si>
     <t>Mat</t>
   </si>
@@ -77,6 +77,39 @@
   </si>
   <si>
     <t>Reprobadas</t>
+  </si>
+  <si>
+    <t>CASTELLANOS</t>
+  </si>
+  <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
+    <t>LEYVA</t>
+  </si>
+  <si>
+    <t>ROJAS</t>
+  </si>
+  <si>
+    <t>TEQUIHUATLE</t>
+  </si>
+  <si>
+    <t>QUIAHUA</t>
+  </si>
+  <si>
+    <t>VELAZQUEZ</t>
+  </si>
+  <si>
+    <t>JENNIFER</t>
+  </si>
+  <si>
+    <t>ROSARIO</t>
+  </si>
+  <si>
+    <t>ELIAN</t>
+  </si>
+  <si>
+    <t>DULCE MARIA</t>
   </si>
 </sst>
 </file>
@@ -785,7 +818,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -818,6 +851,98 @@
         <v>19</v>
       </c>
     </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>20330051920223</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>20330051920253</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>20330051920298</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>20330051920311</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docentes/Ángel Martínez Noe Cristobal - Estadisticos 20211.xlsx
+++ b/docentes/Ángel Martínez Noe Cristobal - Estadisticos 20211.xlsx
@@ -85,12 +85,12 @@
     <t>SANCHEZ</t>
   </si>
   <si>
+    <t>ROJAS</t>
+  </si>
+  <si>
     <t>LEYVA</t>
   </si>
   <si>
-    <t>ROJAS</t>
-  </si>
-  <si>
     <t>TEQUIHUATLE</t>
   </si>
   <si>
@@ -106,10 +106,10 @@
     <t>ROSARIO</t>
   </si>
   <si>
+    <t>DULCE MARIA</t>
+  </si>
+  <si>
     <t>ELIAN</t>
-  </si>
-  <si>
-    <t>DULCE MARIA</t>
   </si>
 </sst>
 </file>
@@ -536,10 +536,10 @@
         <v>12</v>
       </c>
       <c r="C3">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <v>12</v>
@@ -548,7 +548,7 @@
         <v>22</v>
       </c>
       <c r="G3">
-        <v>64.70999999999999</v>
+        <v>62.86</v>
       </c>
       <c r="H3">
         <v>6.6</v>
@@ -653,10 +653,10 @@
         <v>12</v>
       </c>
       <c r="C3">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D3">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E3">
         <v>34</v>
@@ -767,10 +767,10 @@
         <v>12</v>
       </c>
       <c r="C3">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <v>12</v>
@@ -779,7 +779,7 @@
         <v>22</v>
       </c>
       <c r="G3">
-        <v>64.70999999999999</v>
+        <v>62.86</v>
       </c>
       <c r="H3">
         <v>6.9</v>
@@ -899,13 +899,13 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>20330051920298</v>
+        <v>20330051920311</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
         <v>29</v>
@@ -922,13 +922,13 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>20330051920311</v>
+        <v>20330051920298</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>30</v>

--- a/docentes/Ángel Martínez Noe Cristobal - Estadisticos 20211.xlsx
+++ b/docentes/Ángel Martínez Noe Cristobal - Estadisticos 20211.xlsx
@@ -79,15 +79,15 @@
     <t>Reprobadas</t>
   </si>
   <si>
+    <t>ROJAS</t>
+  </si>
+  <si>
     <t>CASTELLANOS</t>
   </si>
   <si>
     <t>SANCHEZ</t>
   </si>
   <si>
-    <t>ROJAS</t>
-  </si>
-  <si>
     <t>LEYVA</t>
   </si>
   <si>
@@ -100,13 +100,13 @@
     <t>VELAZQUEZ</t>
   </si>
   <si>
+    <t>DULCE MARIA</t>
+  </si>
+  <si>
     <t>JENNIFER</t>
   </si>
   <si>
     <t>ROSARIO</t>
-  </si>
-  <si>
-    <t>DULCE MARIA</t>
   </si>
   <si>
     <t>ELIAN</t>
@@ -853,22 +853,22 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>20330051920223</v>
+        <v>20330051920311</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
         <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G2">
         <v>6</v>
@@ -876,13 +876,13 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>20330051920253</v>
+        <v>20330051920223</v>
       </c>
       <c r="B3" t="s">
         <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>28</v>
@@ -899,22 +899,22 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>20330051920311</v>
+        <v>20330051920253</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G4">
         <v>6</v>
